--- a/biology/Zoologie/Jürgen_Aschoff/Jürgen_Aschoff.xlsx
+++ b/biology/Zoologie/Jürgen_Aschoff/Jürgen_Aschoff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>J%C3%BCrgen_Aschoff</t>
+          <t>Jürgen_Aschoff</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jürgen Aschoff, né le 25 janvier 1913 à Fribourg-en-Brisgau et mort le 12 octobre 1998 dans cette même ville, est un biologiste allemand. Il est considéré, avec Colin Pittendrigh (1918-1996), comme le fondateur de la chronobiologie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>J%C3%BCrgen_Aschoff</t>
+          <t>Jürgen_Aschoff</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d’un pathologiste, il fait des études de médecine à l’université de Bonn puis à Göttingen, Wurtzbourg et Heidelberg. Il y étudie notamment la thermorégulation chez l’être humain sous la direction d’Hermann Rein (1898-1953). Il met en évidence que la température corporelle suit des cycles journaliers.
 Après la guerre, Aschoff enseigne à l’université de Wurtzbourg. En 1952, Hermann Rein prend la tête du nouvel Institut Max Planck de recherche médicale d’Heidelberg et appelle à lui son ancien étudiant, Aschoff. Ce dernier confirme dans ses premiers travaux le caractère endogène du rythme circadien et que celui-ci est largement répandu dans le règne animal : il maintient plusieurs générations de souris et d’oiseaux dans des conditions constantes et celles-ci continuent de montrer un rythme journalier inné. Avec son collaborateur Rütger Wever (en), il met au point dans les années 1950 un modèle mathématique qui permet aux spécialistes des rythmes biologiques de parler un même langage. À la fin de cette décennie, Erich von Holst (1908-1962) et Karl von Frisch (1886-1982) fondent l’Institut Max Planck de physiologie comportementale en Bavière et recrutent Aschoff. Celui-ci y crée son propre département de recherche consacré aux rythmes biologiques.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>J%C3%BCrgen_Aschoff</t>
+          <t>Jürgen_Aschoff</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Peter Berthold (2000). In Memoriam: Jürgen Aschoff, 1913-1998, The Auk, 117 (3), : 779-780.  (ISSN 0004-8038)
 Serge Daan et Eberhard Gwinner (1998). Jürgen Aschoff (1913-98). Pioneer in biological rhythms, Nature, 396 : 418.  (ISSN 0028-0836)
